--- a/data/trans_orig/P79A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3663</v>
+        <v>3720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16297</v>
+        <v>16191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01145285070871012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005303014583080415</v>
+        <v>0.005386482234681629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02359462002841834</v>
+        <v>0.02344060919925231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -762,19 +762,19 @@
         <v>11406</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6477</v>
+        <v>6161</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20603</v>
+        <v>19745</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01553596638465583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00882209091578851</v>
+        <v>0.008391763779588227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02806226973680799</v>
+        <v>0.02689399237444999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -783,19 +783,19 @@
         <v>19317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12160</v>
+        <v>11872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29128</v>
+        <v>29290</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0135566919941488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00853375965537273</v>
+        <v>0.00833207169666886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02044194552301853</v>
+        <v>0.02055571090653053</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>682799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>674413</v>
+        <v>674519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687047</v>
+        <v>686990</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9885471492912901</v>
+        <v>0.98854714929129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9764053799715815</v>
+        <v>0.9765593908007478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946969854169196</v>
+        <v>0.9946135177653186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1227</v>
@@ -833,19 +833,19 @@
         <v>722774</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>713577</v>
+        <v>714435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>727703</v>
+        <v>728019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9844640336153441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.971937730263192</v>
+        <v>0.97310600762555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9911779090842114</v>
+        <v>0.9916082362204118</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1949</v>
@@ -854,19 +854,19 @@
         <v>1405572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1395761</v>
+        <v>1395599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1412729</v>
+        <v>1413017</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9864433080058511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9795580544769812</v>
+        <v>0.9794442890934694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9914662403446268</v>
+        <v>0.9916679283033313</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>22711</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12841</v>
+        <v>11948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38331</v>
+        <v>37949</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02165204290386231</v>
+        <v>0.02165204290386232</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01224226591712322</v>
+        <v>0.01139058485827017</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03654354575485506</v>
+        <v>0.03617897442663549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -979,19 +979,19 @@
         <v>19576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12340</v>
+        <v>11983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36718</v>
+        <v>33619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01827041077267233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0115168810480529</v>
+        <v>0.01118387605375735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03426907472540343</v>
+        <v>0.03137601645742343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1000,19 +1000,19 @@
         <v>42287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28789</v>
+        <v>28142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62605</v>
+        <v>60011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01994323959124332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01357715262294686</v>
+        <v>0.01327188725866283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02952504609288419</v>
+        <v>0.02830187558681275</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1026206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1010586</v>
+        <v>1010968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1036076</v>
+        <v>1036969</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9783479570961378</v>
+        <v>0.9783479570961376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634564542451449</v>
+        <v>0.9638210255733642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9877577340828766</v>
+        <v>0.9886094151417297</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1050,19 +1050,19 @@
         <v>1051898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1034756</v>
+        <v>1037855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1059134</v>
+        <v>1059491</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9817295892273277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9657309252745971</v>
+        <v>0.9686239835425768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884831189519473</v>
+        <v>0.9888161239462426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2446</v>
@@ -1071,19 +1071,19 @@
         <v>2078104</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2057786</v>
+        <v>2060380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2091602</v>
+        <v>2092249</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9800567604087564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9704749539071159</v>
+        <v>0.9716981244131878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9864228473770531</v>
+        <v>0.9867281127413372</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>28983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17712</v>
+        <v>18322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47694</v>
+        <v>50591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0360905989802621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02205531394241397</v>
+        <v>0.02281459614098462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05938962313401348</v>
+        <v>0.06299654695473862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1196,19 +1196,19 @@
         <v>15117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8638</v>
+        <v>8456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25987</v>
+        <v>26197</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01861134459586505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01063486179997445</v>
+        <v>0.01041052876550081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03199340630269994</v>
+        <v>0.03225173270189108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1217,19 +1217,19 @@
         <v>44101</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29603</v>
+        <v>30212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64116</v>
+        <v>65764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02730127330971551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01832638086687118</v>
+        <v>0.01870339797110464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03969191369114088</v>
+        <v>0.04071243340642376</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>774090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>755379</v>
+        <v>752482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>785361</v>
+        <v>784751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.963909401019738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9406103768659865</v>
+        <v>0.9370034530452614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9779446860575862</v>
+        <v>0.9771854038590152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1030</v>
@@ -1267,19 +1267,19 @@
         <v>797142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>786272</v>
+        <v>786062</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>803621</v>
+        <v>803803</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9813886554041348</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9680065936973004</v>
+        <v>0.9677482672981093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9893651382000259</v>
+        <v>0.9895894712344995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1686</v>
@@ -1288,19 +1288,19 @@
         <v>1571231</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1551216</v>
+        <v>1549568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1585729</v>
+        <v>1585120</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9726987266902846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9603080863088589</v>
+        <v>0.9592875665935761</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9816736191331288</v>
+        <v>0.9812966020288953</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>25756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17473</v>
+        <v>16939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39346</v>
+        <v>37069</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02601495669233499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01764788921990087</v>
+        <v>0.01710910910923739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03974144703218281</v>
+        <v>0.03744119501889944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1413,19 +1413,19 @@
         <v>38180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26734</v>
+        <v>27388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52253</v>
+        <v>51899</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03411822545709681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02389041815172822</v>
+        <v>0.02447471741997942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04669487249104436</v>
+        <v>0.04637809847228971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -1434,19 +1434,19 @@
         <v>63936</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49360</v>
+        <v>49133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83458</v>
+        <v>79700</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0303143628735411</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02340316467124051</v>
+        <v>0.02329551799856099</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03957018496534053</v>
+        <v>0.03778878564471912</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>964306</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>950716</v>
+        <v>952993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>972589</v>
+        <v>973123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9739850433076651</v>
+        <v>0.973985043307665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9602585529678174</v>
+        <v>0.9625588049811007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9823521107800992</v>
+        <v>0.9828908908907628</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1518</v>
@@ -1484,19 +1484,19 @@
         <v>1080861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1066788</v>
+        <v>1067142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1092307</v>
+        <v>1091653</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9658817745429034</v>
+        <v>0.9658817745429031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9533051275089557</v>
+        <v>0.9536219015277102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9761095818482719</v>
+        <v>0.9755252825800207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2498</v>
@@ -1505,19 +1505,19 @@
         <v>2045168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2025646</v>
+        <v>2029404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2059744</v>
+        <v>2059971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9696856371264588</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9604298150346593</v>
+        <v>0.9622112143552811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765968353287595</v>
+        <v>0.9767044820014392</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>85362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02416285196322061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1630,19 +1630,19 @@
         <v>84279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02255296621645562</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -1651,19 +1651,19 @@
         <v>169641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3447400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3422419</v>
+        <v>3421549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3467433</v>
+        <v>3467749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9758371480367795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.968765704484818</v>
+        <v>0.9685196576660319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9815076152694062</v>
+        <v>0.9815970858721162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5271</v>
@@ -1701,19 +1701,19 @@
         <v>3652675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3630533</v>
+        <v>3630735</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3669389</v>
+        <v>3669569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9774470337835445</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9715219365638238</v>
+        <v>0.9715759581516983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.981919676947949</v>
+        <v>0.9819678910966712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8579</v>
@@ -1722,19 +1722,19 @@
         <v>7100075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7067257</v>
+        <v>7068273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7129123</v>
+        <v>7127644</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766647001979306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9721503681746748</v>
+        <v>0.9722901732913873</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9806604488481924</v>
+        <v>0.9804570681691633</v>
       </c>
     </row>
     <row r="18">
